--- a/Material properties.xlsx
+++ b/Material properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msmsa\Google Drive\Brightway2\Material properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msardar2\Google Drive\Brightway2\Laptop_BitBucket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E144C-C87F-4C55-BC91-197BA704A377}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="789"/>
   </bookViews>
   <sheets>
     <sheet name="Material Properties" sheetId="26" r:id="rId1"/>
@@ -334,12 +333,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>James Levis</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="M8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -807,9 +806,6 @@
     <t>Office_Paper</t>
   </si>
   <si>
-    <t>Magazines_</t>
-  </si>
-  <si>
     <t>Folding_Containers</t>
   </si>
   <si>
@@ -991,12 +987,15 @@
   </si>
   <si>
     <t>Oxygen Content</t>
+  </si>
+  <si>
+    <t>Magazines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1205,48 +1204,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="Comma 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="24" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 10 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 11" xfId="26" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 12" xfId="25" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 13" xfId="41" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 2 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 2 2 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 2 2 6" xfId="17" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 2 2 7" xfId="20" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 2 2 8" xfId="37" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 2 5" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 2 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 2 7" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Normal 3 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Normal 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Normal 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Normal 4 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Normal 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Normal 5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Normal 6 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Normal 7" xfId="18" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Normal 7 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Normal 8" xfId="22" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal 9" xfId="23" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal_FossilFuel" xfId="1" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Percent 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Percent 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Percent 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Percent 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Percent 4" xfId="28" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 10" xfId="24"/>
+    <cellStyle name="Normal 10 2" xfId="33"/>
+    <cellStyle name="Normal 11" xfId="26"/>
+    <cellStyle name="Normal 12" xfId="25"/>
+    <cellStyle name="Normal 13" xfId="41"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 2 2 2" xfId="5"/>
+    <cellStyle name="Normal 2 2 3" xfId="9"/>
+    <cellStyle name="Normal 2 2 4" xfId="11"/>
+    <cellStyle name="Normal 2 2 5" xfId="14"/>
+    <cellStyle name="Normal 2 2 6" xfId="17"/>
+    <cellStyle name="Normal 2 2 7" xfId="20"/>
+    <cellStyle name="Normal 2 2 8" xfId="37"/>
+    <cellStyle name="Normal 2 3" xfId="8"/>
+    <cellStyle name="Normal 2 4" xfId="7"/>
+    <cellStyle name="Normal 2 5" xfId="13"/>
+    <cellStyle name="Normal 2 6" xfId="16"/>
+    <cellStyle name="Normal 2 7" xfId="19"/>
+    <cellStyle name="Normal 3" xfId="15"/>
+    <cellStyle name="Normal 3 2" xfId="39"/>
+    <cellStyle name="Normal 3 3" xfId="29"/>
+    <cellStyle name="Normal 4" xfId="21"/>
+    <cellStyle name="Normal 4 2" xfId="35"/>
+    <cellStyle name="Normal 4 3" xfId="31"/>
+    <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 5 2" xfId="34"/>
+    <cellStyle name="Normal 6" xfId="12"/>
+    <cellStyle name="Normal 6 2" xfId="27"/>
+    <cellStyle name="Normal 7" xfId="18"/>
+    <cellStyle name="Normal 7 2" xfId="40"/>
+    <cellStyle name="Normal 8" xfId="22"/>
+    <cellStyle name="Normal 9" xfId="23"/>
+    <cellStyle name="Normal_FossilFuel" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="3"/>
+    <cellStyle name="Percent 2 2" xfId="6"/>
+    <cellStyle name="Percent 2 2 2" xfId="38"/>
+    <cellStyle name="Percent 2 3" xfId="30"/>
+    <cellStyle name="Percent 3" xfId="36"/>
+    <cellStyle name="Percent 4" xfId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1695,23 +1694,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1747,23 +1729,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1939,56 +1904,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet141"/>
   <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AI2" sqref="AI2"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.453125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.81640625" style="2"/>
+    <col min="20" max="20" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12.42578125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
@@ -1999,40 +1964,40 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>114</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>1</v>
@@ -2092,10 +2057,10 @@
         <v>96</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>102</v>
@@ -2198,7 +2163,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -2261,7 +2226,7 @@
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -2300,7 +2265,7 @@
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -2407,7 +2372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>132</v>
       </c>
@@ -2510,7 +2475,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>133</v>
       </c>
@@ -2613,7 +2578,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>134</v>
       </c>
@@ -2716,9 +2681,9 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
@@ -2819,9 +2784,9 @@
         <v>300.7</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>49</v>
@@ -2922,7 +2887,7 @@
         <v>300.7</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3025,7 +2990,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>135</v>
       </c>
@@ -3128,7 +3093,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -3231,9 +3196,9 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>52</v>
@@ -3334,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -3437,9 +3402,9 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>84</v>
@@ -3540,7 +3505,7 @@
         <v>152.30000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>136</v>
       </c>
@@ -3643,9 +3608,9 @@
         <v>217.3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>55</v>
@@ -3746,9 +3711,9 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>56</v>
@@ -3849,9 +3814,9 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>85</v>
@@ -3952,9 +3917,9 @@
         <v>152.30000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>86</v>
@@ -4055,9 +4020,9 @@
         <v>152.30000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>57</v>
@@ -4156,9 +4121,9 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>58</v>
@@ -4259,9 +4224,9 @@
         <v>132.1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>59</v>
@@ -4356,9 +4321,9 @@
       </c>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>60</v>
@@ -4453,9 +4418,9 @@
       </c>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>61</v>
@@ -4552,9 +4517,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>87</v>
@@ -4647,9 +4612,9 @@
       </c>
       <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>88</v>
@@ -4742,9 +4707,9 @@
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>62</v>
@@ -4839,9 +4804,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>63</v>
@@ -4936,9 +4901,9 @@
       </c>
       <c r="AI30" s="13"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>64</v>
@@ -5035,9 +5000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>65</v>
@@ -5134,9 +5099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -5233,9 +5198,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>67</v>
@@ -5332,9 +5297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>68</v>
@@ -5431,9 +5396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>69</v>
@@ -5530,9 +5495,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>70</v>
@@ -5629,9 +5594,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>71</v>
@@ -5728,9 +5693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>72</v>
@@ -5827,9 +5792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>73</v>
@@ -5926,9 +5891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>74</v>
@@ -6025,9 +5990,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>75</v>
@@ -6124,9 +6089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>76</v>
@@ -6223,9 +6188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>77</v>
@@ -6326,9 +6291,9 @@
         <v>124.47629928775075</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>89</v>
@@ -6425,9 +6390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -6494,9 +6459,9 @@
       </c>
       <c r="AI46" s="4"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>79</v>
@@ -6563,9 +6528,9 @@
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>80</v>
@@ -6630,9 +6595,9 @@
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>81</v>
@@ -6699,9 +6664,9 @@
       <c r="AH49" s="13"/>
       <c r="AI49" s="13"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>82</v>
@@ -6768,9 +6733,9 @@
       <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>113</v>
@@ -6871,9 +6836,9 @@
       </c>
       <c r="AI51" s="13"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>116</v>
@@ -6936,9 +6901,9 @@
       <c r="AH52" s="13"/>
       <c r="AI52" s="13"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>117</v>
@@ -7001,9 +6966,9 @@
       <c r="AH53" s="13"/>
       <c r="AI53" s="13"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>118</v>
@@ -7066,9 +7031,9 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>119</v>
@@ -7131,9 +7096,9 @@
       <c r="AH55" s="13"/>
       <c r="AI55" s="13"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>120</v>
@@ -7196,9 +7161,9 @@
       <c r="AH56" s="13"/>
       <c r="AI56" s="13"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>121</v>
@@ -7261,9 +7226,9 @@
       <c r="AH57" s="13"/>
       <c r="AI57" s="13"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>122</v>
@@ -7326,9 +7291,9 @@
       <c r="AH58" s="13"/>
       <c r="AI58" s="13"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>123</v>
@@ -7391,9 +7356,9 @@
       <c r="AH59" s="13"/>
       <c r="AI59" s="13"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>124</v>
@@ -7456,9 +7421,9 @@
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>125</v>
@@ -7521,9 +7486,9 @@
       <c r="AH61" s="13"/>
       <c r="AI61" s="13"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>126</v>
@@ -7586,9 +7551,9 @@
       <c r="AH62" s="13"/>
       <c r="AI62" s="13"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>127</v>
@@ -7651,9 +7616,9 @@
       <c r="AH63" s="13"/>
       <c r="AI63" s="13"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>128</v>
@@ -7716,9 +7681,9 @@
       <c r="AH64" s="13"/>
       <c r="AI64" s="13"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>129</v>

--- a/Material properties.xlsx
+++ b/Material properties.xlsx
@@ -996,10 +996,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1158,7 +1157,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,19 +1186,7 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1912,44 +1899,42 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="12.42578125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
@@ -2385,22 +2370,22 @@
       <c r="D6" s="10">
         <v>91.480000000000018</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>8.5199999999999818</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>15.9877</v>
       </c>
       <c r="G6" s="10">
         <v>62.703558621977855</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>17.82</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>90</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <v>369.70004417671095</v>
       </c>
       <c r="K6" s="10">
@@ -2409,69 +2394,69 @@
       <c r="L6" s="10">
         <v>15.3827127803031</v>
       </c>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
         <v>6.0242550000000001</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>39.580987000000007</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>1.8405009999999997</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>0.19800000000000001</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>1.27</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="10">
         <v>0.14799999999999999</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="10">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="10">
         <v>3.57E-5</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="10">
         <v>9.4099999999999997E-5</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="10">
         <v>2.62E-5</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="10">
         <v>5.053946033637301E-7</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="10">
         <v>4.5099999999999996E-4</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z6" s="10">
         <v>2.4399999999999999E-3</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AA6" s="10">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AB6" s="10">
         <v>1.9542390246850814E-4</v>
       </c>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="13">
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="10">
         <v>0.31334099999999998</v>
       </c>
-      <c r="AH6" s="13">
+      <c r="AH6" s="10">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AI6" s="13">
+      <c r="AI6" s="10">
         <v>30.6</v>
       </c>
     </row>
@@ -2488,22 +2473,22 @@
       <c r="D7" s="10">
         <v>93.35</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>6.6500000000000057</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>16.536200000000001</v>
       </c>
       <c r="G7" s="10">
         <v>194.30073545798973</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>31.13</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>250</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>239.29013093704089</v>
       </c>
       <c r="K7" s="10">
@@ -2512,69 +2497,69 @@
       <c r="L7" s="10">
         <v>46.533318972843063</v>
       </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
         <v>6</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>39.055</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>3.3049999999999997</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>0.19800000000000001</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="10">
         <v>1.27</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="10">
         <v>0.14799999999999999</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="10">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="10">
         <v>3.57E-5</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="10">
         <v>9.4099999999999997E-5</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="10">
         <v>2.62E-5</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="10">
         <v>5.053946033637301E-7</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="10">
         <v>4.5099999999999996E-4</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="10">
         <v>2.4399999999999999E-3</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="10">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="10">
         <v>1.9542390246850814E-4</v>
       </c>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="13">
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="AH7" s="13">
+      <c r="AH7" s="10">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AI7" s="13">
+      <c r="AI7" s="10">
         <v>136</v>
       </c>
     </row>
@@ -2591,22 +2576,22 @@
       <c r="D8" s="10">
         <v>95.675000000000011</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>4.3249999999999886</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>15.467499999999999</v>
       </c>
       <c r="G8" s="10">
         <v>95.164432820512801</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>1.56</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>300</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>339.83354242085147</v>
       </c>
       <c r="K8" s="10">
@@ -2615,69 +2600,69 @@
       <c r="L8" s="10">
         <v>23.085847664160916</v>
       </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
         <v>5.8279883333333338</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>43.399337500000001</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>0.82380083333333343</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>0.19800000000000001</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="10">
         <v>1.27</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="10">
         <v>0.14799999999999999</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="10">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="10">
         <v>3.57E-5</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="10">
         <v>9.4099999999999997E-5</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="10">
         <v>2.62E-5</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="10">
         <v>5.053946033637301E-7</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="10">
         <v>4.5099999999999996E-4</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="10">
         <v>2.4399999999999999E-3</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="10">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB8" s="10">
         <v>1.9542390246850814E-4</v>
       </c>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="13">
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="10">
         <v>0.46380083333333327</v>
       </c>
-      <c r="AH8" s="13">
+      <c r="AH8" s="10">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AI8" s="13">
+      <c r="AI8" s="10">
         <v>62.6</v>
       </c>
     </row>
@@ -2694,22 +2679,22 @@
       <c r="D9" s="10">
         <v>95.11</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>4.8900000000000006</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>18.642499999999998</v>
       </c>
       <c r="G9" s="10">
         <v>379.52075471698106</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>15.02</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>320</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <v>83.81336330647548</v>
       </c>
       <c r="K9" s="10">
@@ -2718,69 +2703,69 @@
       <c r="L9" s="10">
         <v>82.916150977073897</v>
       </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
         <v>6.62</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>37.549999999999997</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>1.68</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>0.23100000000000001</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="10">
         <v>1.27</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="10">
         <v>3.1E-2</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="10">
         <v>1.25E-3</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="10">
         <v>9.4600000000000009E-6</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="10">
         <v>2.62E-5</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="10">
         <v>5.0434766256788803E-7</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Y9" s="10">
         <v>5.2400000000000005E-4</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="10">
         <v>1.0400000000000001E-4</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="10">
         <v>1.9354509955809383E-4</v>
       </c>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="13">
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="10">
         <v>0.2</v>
       </c>
-      <c r="AH9" s="13">
+      <c r="AH9" s="10">
         <v>0.10299999999999999</v>
       </c>
-      <c r="AI9" s="13">
+      <c r="AI9" s="10">
         <v>300.7</v>
       </c>
     </row>
@@ -2797,22 +2782,22 @@
       <c r="D10" s="10">
         <v>94</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>6</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>18.894600000000001</v>
       </c>
       <c r="G10" s="10">
         <v>316.09911504424775</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>15.02</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>320</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>145.19139922521953</v>
       </c>
       <c r="K10" s="10">
@@ -2821,69 +2806,69 @@
       <c r="L10" s="10">
         <v>70.001777019582747</v>
       </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
         <v>6.7</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <v>34.799999999999997</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>2.94</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>0.996</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="10">
         <v>0.53300000000000003</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="10">
         <v>5.1600000000000005E-3</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="10">
         <v>6.0899999999999995E-4</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="10">
         <v>1.13E-5</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V10" s="10">
         <v>6.6700000000000009E-5</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="10">
         <v>5.0434766256788803E-7</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="10">
         <v>1.18E-4</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="Z10" s="10">
         <v>7.0000000000000007E-6</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AA10" s="10">
         <v>4.9199999999999999E-3</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AB10" s="10">
         <v>1.9354509955809383E-4</v>
       </c>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="13">
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="10">
         <v>0.86</v>
       </c>
-      <c r="AG10" s="13">
+      <c r="AG10" s="10">
         <v>0.2</v>
       </c>
-      <c r="AH10" s="13">
+      <c r="AH10" s="10">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="AI10" s="13">
+      <c r="AI10" s="10">
         <v>300.7</v>
       </c>
     </row>
@@ -2900,22 +2885,22 @@
       <c r="D11" s="10">
         <v>90.6</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>9.4000000000000057</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>20.193200000000001</v>
       </c>
       <c r="G11" s="10">
         <v>17.148532082324472</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>6.5</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>600</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>494.89277225933603</v>
       </c>
       <c r="K11" s="10">
@@ -2924,69 +2909,69 @@
       <c r="L11" s="10">
         <v>3.5810420380960637</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>0.77266949152541997</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>6.4</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>30.49</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>0.8</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="10">
         <v>0.21199999999999999</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="10">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="10">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="10">
         <v>3.4100000000000002E-5</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="10">
         <v>3.0499999999999999E-5</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="10">
         <v>2.1299999999999999E-5</v>
       </c>
-      <c r="X11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="13">
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
         <v>3.4100000000000003E-3</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="Z11" s="10">
         <v>1.8100000000000002E-3</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AA11" s="10">
         <v>4.36E-2</v>
       </c>
-      <c r="AB11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="13">
+      <c r="AB11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AG11" s="13">
+      <c r="AG11" s="10">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="AH11" s="13">
+      <c r="AH11" s="10">
         <v>0.44</v>
       </c>
-      <c r="AI11" s="13">
+      <c r="AI11" s="10">
         <v>11.6</v>
       </c>
     </row>
@@ -3003,22 +2988,22 @@
       <c r="D12" s="10">
         <v>79.599999999999994</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>20.400000000000006</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>23.895600000000002</v>
       </c>
       <c r="G12" s="10">
         <v>17.736533957845349</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>6.5</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>600</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>541.98922152309478</v>
       </c>
       <c r="K12" s="10">
@@ -3027,69 +3012,69 @@
       <c r="L12" s="10">
         <v>3.3887305662932596</v>
       </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
         <v>7</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>13.95</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <v>1.3</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="10">
         <v>0.21199999999999999</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="10">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="10">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="10">
         <v>3.4100000000000002E-5</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="10">
         <v>3.0499999999999999E-5</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="10">
         <v>2.1299999999999999E-5</v>
       </c>
-      <c r="X12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="13">
+      <c r="X12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="10">
         <v>3.4100000000000003E-3</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="10">
         <v>1.8100000000000002E-3</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="10">
         <v>4.36E-2</v>
       </c>
-      <c r="AB12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="13">
+      <c r="AB12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="10">
         <v>0.59</v>
       </c>
-      <c r="AG12" s="13">
+      <c r="AG12" s="10">
         <v>0.66</v>
       </c>
-      <c r="AH12" s="13">
+      <c r="AH12" s="10">
         <v>0.44</v>
       </c>
-      <c r="AI12" s="13">
+      <c r="AI12" s="10">
         <v>11.6</v>
       </c>
     </row>
@@ -3106,22 +3091,22 @@
       <c r="D13" s="10">
         <v>98.6</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>1.4000000000000057</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>19.009</v>
       </c>
       <c r="G13" s="10">
         <v>232.9393300248139</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>3.08</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>70</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>35.225626631145531</v>
       </c>
       <c r="K13" s="10">
@@ -3130,69 +3115,69 @@
       <c r="L13" s="10">
         <v>87.635792688260608</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>23.309999999999995</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>6.1</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <v>38.71</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>1.74</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>0.23</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="10">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="10">
         <v>2.14E-3</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="10">
         <v>4.8699999999999998E-5</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="10">
         <v>8.4700000000000002E-6</v>
       </c>
-      <c r="X13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="13">
+      <c r="X13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="10">
         <v>1.49E-2</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="10">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="AB13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="13">
+      <c r="AB13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="10">
         <v>0.05</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="AG13" s="10">
         <v>0.2</v>
       </c>
-      <c r="AH13" s="13">
+      <c r="AH13" s="10">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="AI13" s="13">
+      <c r="AI13" s="10">
         <v>46.4</v>
       </c>
     </row>
@@ -3209,22 +3194,22 @@
       <c r="D14" s="10">
         <v>69.5</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>30.5</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>20.129799999999999</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
       </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
         <v>70</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>239.4</v>
       </c>
       <c r="K14" s="10">
@@ -3233,69 +3218,69 @@
       <c r="L14" s="10">
         <v>0</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <v>23.94</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>5.97</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <v>12.86</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="10">
         <v>1.49</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>2.7709999999999999E-2</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="10">
         <v>6.0059999999999995E-2</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="10">
         <v>0.19052000000000005</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="10">
         <v>1.7512E-2</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="10">
         <v>9.5170000000000012E-5</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="10">
         <v>0.33</v>
       </c>
-      <c r="W14" s="13">
+      <c r="W14" s="10">
         <v>8.4059999999999988E-6</v>
       </c>
-      <c r="X14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="13">
+      <c r="X14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10">
         <v>0.41402690000000003</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="Z14" s="10">
         <v>1.336E-2</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="10">
         <v>0.38040000000000002</v>
       </c>
-      <c r="AB14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="13">
+      <c r="AB14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="10">
         <v>1.3</v>
       </c>
-      <c r="AH14" s="13">
+      <c r="AH14" s="10">
         <v>9.4510000000000011E-2</v>
       </c>
-      <c r="AI14" s="13">
+      <c r="AI14" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3312,22 +3297,22 @@
       <c r="D15" s="10">
         <v>98.13</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>1.8700000000000045</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>17.496400000000001</v>
       </c>
       <c r="G15" s="10">
         <v>73.967764227642235</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>3.45</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>25</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <v>410.51817506702525</v>
       </c>
       <c r="K15" s="10">
@@ -3336,69 +3321,69 @@
       <c r="L15" s="10">
         <v>16.186571035723734</v>
       </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
         <v>6.1549999999999994</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="10">
         <v>42.69</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="10">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>7.45E-3</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="10">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="10">
         <v>0.122</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="10">
         <v>4.1900000000000001E-3</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="10">
         <v>7.3699999999999997E-6</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="10">
         <v>4.8300000000000002E-5</v>
       </c>
-      <c r="W15" s="13">
+      <c r="W15" s="10">
         <v>3.3099999999999996E-6</v>
       </c>
-      <c r="X15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="13">
+      <c r="X15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
         <v>1.5E-3</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="Z15" s="10">
         <v>2.6800000000000001E-4</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="10">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AB15" s="10">
         <v>2.5157877243035879E-5</v>
       </c>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="13">
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="10">
         <v>0.20500000000000002</v>
       </c>
-      <c r="AH15" s="13">
+      <c r="AH15" s="10">
         <v>0.88500000000000001</v>
       </c>
-      <c r="AI15" s="13">
+      <c r="AI15" s="10">
         <v>74.3</v>
       </c>
     </row>
@@ -3415,22 +3400,22 @@
       <c r="D16" s="10">
         <v>89</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>11</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>14.309200000000001</v>
       </c>
       <c r="G16" s="10">
         <v>169.30614877623097</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>200</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>225.52468060040917</v>
       </c>
       <c r="K16" s="10">
@@ -3439,69 +3424,69 @@
       <c r="L16" s="10">
         <v>44.587751622457617</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>0.20057212913771966</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>5.4</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="10">
         <v>39.479999999999997</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="10">
         <v>0.1</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="10">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="10">
         <v>0.29399999999999998</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="10">
         <v>2.7600000000000003E-3</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="10">
         <v>4.6500000000000004E-6</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="10">
         <v>3.0700000000000001E-5</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="10">
         <v>6.02E-6</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="10">
         <v>3.0574591807673789E-6</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="10">
         <v>2.5399999999999997E-3</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="10">
         <v>3.5599999999999998E-4</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="10">
         <v>4.15E-3</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AB16" s="10">
         <v>1.8831115057022771E-5</v>
       </c>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="13">
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="10">
         <v>0.02</v>
       </c>
-      <c r="AG16" s="13">
+      <c r="AG16" s="10">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="AH16" s="13">
+      <c r="AH16" s="10">
         <v>1.19</v>
       </c>
-      <c r="AI16" s="13">
+      <c r="AI16" s="10">
         <v>152.30000000000001</v>
       </c>
     </row>
@@ -3518,22 +3503,22 @@
       <c r="D17" s="10">
         <v>79.3</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>20.700000000000003</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>13.025600000000001</v>
       </c>
       <c r="G17" s="10">
         <v>305.07238765969151</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>3.08</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>250</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>46.133755180061883</v>
       </c>
       <c r="K17" s="10">
@@ -3542,69 +3527,69 @@
       <c r="L17" s="10">
         <v>87.635792688260608</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="10">
         <v>0.18765638031693077</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <v>5</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="10">
         <v>36.69</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="10">
         <v>0.1</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="10">
         <v>3.8200000000000005E-3</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="10">
         <v>1.18E-2</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="10">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="10">
         <v>4.95E-4</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="10">
         <v>5.3400000000000005E-6</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="10">
         <v>2.1299999999999999E-5</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="10">
         <v>3.5599999999999998E-6</v>
       </c>
-      <c r="X17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="13">
+      <c r="X17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="Z17" s="10">
         <v>8.0500000000000005E-5</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="10">
         <v>2.8899999999999998E-3</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AB17" s="10">
         <v>2.5157877243035879E-5</v>
       </c>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="13">
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG17" s="13">
+      <c r="AG17" s="10">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="AH17" s="13">
+      <c r="AH17" s="10">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AI17" s="13">
+      <c r="AI17" s="10">
         <v>217.3</v>
       </c>
     </row>
@@ -3621,22 +3606,22 @@
       <c r="D18" s="10">
         <v>66</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>34</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>12.1088</v>
       </c>
       <c r="G18" s="10">
         <v>83.721536118750407</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>12.68</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>500</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>250.50639929986471</v>
       </c>
       <c r="K18" s="10">
@@ -3645,69 +3630,69 @@
       <c r="L18" s="10">
         <v>26.374210804995162</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <v>0.17572643515237421</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="10">
         <v>4.2</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="10">
         <v>27.45</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="10">
         <v>0.1</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="10">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="10">
         <v>0.12</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="10">
         <v>7.0499999999999998E-3</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="10">
         <v>4.7600000000000002E-6</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="10">
         <v>6.0599999999999996E-5</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="10">
         <v>6.1999999999999999E-6</v>
       </c>
-      <c r="X18" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="13">
+      <c r="X18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10">
         <v>1.1800000000000001E-3</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="Z18" s="10">
         <v>2.4300000000000002E-4</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="10">
         <v>4.1099999999999999E-3</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AB18" s="10">
         <v>2.5157877243035879E-5</v>
       </c>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="13">
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="10">
         <v>0.03</v>
       </c>
-      <c r="AG18" s="13">
+      <c r="AG18" s="10">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="AH18" s="13">
+      <c r="AH18" s="10">
         <v>1.46</v>
       </c>
-      <c r="AI18" s="13">
+      <c r="AI18" s="10">
         <v>84.4</v>
       </c>
     </row>
@@ -3724,22 +3709,22 @@
       <c r="D19" s="10">
         <v>86.28</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>13.719999999999999</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>12.9041</v>
       </c>
       <c r="G19" s="10">
         <v>75.187173759747779</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>12.68</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>500</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <v>298.11115958459879</v>
       </c>
       <c r="K19" s="10">
@@ -3748,69 +3733,69 @@
       <c r="L19" s="10">
         <v>21.280390920359448</v>
       </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
         <v>5.41</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="10">
         <v>42.74</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="10">
         <v>0.17</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="10">
         <v>1.5525000000000001E-2</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="10">
         <v>8.9874999999999997E-2</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="10">
         <v>9.2874999999999999E-2</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="10">
         <v>7.7124999999999997E-3</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="10">
         <v>4.0949999999999998E-6</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="10">
         <v>6.6950000000000001E-5</v>
       </c>
-      <c r="W19" s="13">
+      <c r="W19" s="10">
         <v>3.9300000000000005E-6</v>
       </c>
-      <c r="X19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="13">
+      <c r="X19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10">
         <v>2.9150000000000001E-3</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="Z19" s="10">
         <v>1.2307499999999999E-3</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="10">
         <v>5.6949999999999995E-3</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AB19" s="10">
         <v>2.5157877243035879E-5</v>
       </c>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="13">
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="10">
         <v>0.09</v>
       </c>
-      <c r="AH19" s="13">
+      <c r="AH19" s="10">
         <v>3.24</v>
       </c>
-      <c r="AI19" s="13">
+      <c r="AI19" s="10">
         <v>84.4</v>
       </c>
     </row>
@@ -3827,22 +3812,22 @@
       <c r="D20" s="10">
         <v>87.800000000000011</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>12.199999999999989</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>14.0692</v>
       </c>
       <c r="G20" s="10">
         <v>139.78836957906319</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>200</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <v>262.16882475282921</v>
       </c>
       <c r="K20" s="10">
@@ -3851,69 +3836,69 @@
       <c r="L20" s="10">
         <v>36.366790108536598</v>
       </c>
-      <c r="M20" s="11">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
         <v>5.2</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="10">
         <v>41.04</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="10">
         <v>0.19</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="10">
         <v>1.29E-2</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="10">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="10">
         <v>0.29099999999999998</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="10">
         <v>1.35E-2</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="10">
         <v>9.8100000000000009E-6</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="10">
         <v>2.94E-5</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W20" s="10">
         <v>6.6100000000000002E-6</v>
       </c>
-      <c r="X20" s="13">
+      <c r="X20" s="10">
         <v>3.0574591807673789E-6</v>
       </c>
-      <c r="Y20" s="13">
+      <c r="Y20" s="10">
         <v>3.2700000000000003E-3</v>
       </c>
-      <c r="Z20" s="13">
+      <c r="Z20" s="10">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA20" s="10">
         <v>8.3400000000000002E-3</v>
       </c>
-      <c r="AB20" s="13">
+      <c r="AB20" s="10">
         <v>1.8831115057022771E-5</v>
       </c>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="13">
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="10">
         <v>0.09</v>
       </c>
-      <c r="AG20" s="13">
+      <c r="AG20" s="10">
         <v>0.08</v>
       </c>
-      <c r="AH20" s="13">
+      <c r="AH20" s="10">
         <v>1.28</v>
       </c>
-      <c r="AI20" s="13">
+      <c r="AI20" s="10">
         <v>152.30000000000001</v>
       </c>
     </row>
@@ -3930,22 +3915,22 @@
       <c r="D21" s="10">
         <v>98.93</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>1.0699999999999932</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>15.444599999999999</v>
       </c>
       <c r="G21" s="10">
         <v>183.77666981020369</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>200</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <v>252.02027626768887</v>
       </c>
       <c r="K21" s="10">
@@ -3954,69 +3939,69 @@
       <c r="L21" s="10">
         <v>43.870762523900034</v>
       </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
         <v>6.08</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="10">
         <v>47.84</v>
       </c>
-      <c r="P21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="11">
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="10">
         <v>1.29E-2</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="10">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="10">
         <v>0.29099999999999998</v>
       </c>
-      <c r="T21" s="13">
+      <c r="T21" s="10">
         <v>1.35E-2</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="10">
         <v>9.8100000000000009E-6</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="10">
         <v>2.94E-5</v>
       </c>
-      <c r="W21" s="13">
+      <c r="W21" s="10">
         <v>6.6100000000000002E-6</v>
       </c>
-      <c r="X21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="13">
+      <c r="X21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10">
         <v>3.2700000000000003E-3</v>
       </c>
-      <c r="Z21" s="13">
+      <c r="Z21" s="10">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="10">
         <v>8.3400000000000002E-3</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AB21" s="10">
         <v>2.5157877243035879E-5</v>
       </c>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="13">
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="10">
         <v>0.11</v>
       </c>
-      <c r="AH21" s="13">
+      <c r="AH21" s="10">
         <v>1.28</v>
       </c>
-      <c r="AI21" s="13">
+      <c r="AI21" s="10">
         <v>152.30000000000001</v>
       </c>
     </row>
@@ -4033,22 +4018,22 @@
       <c r="D22" s="10">
         <v>94</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>6</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>15.065</v>
       </c>
       <c r="G22" s="10">
         <v>142.68373481788734</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>3.27</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>308.79392548119387</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="10">
         <v>281.1654479997477</v>
       </c>
       <c r="K22" s="10">
@@ -4057,67 +4042,67 @@
       <c r="L22" s="10">
         <v>35.23025846584941</v>
       </c>
-      <c r="M22" s="11">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
         <v>5.82</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="10">
         <v>44.32</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="10">
         <v>0.25</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="10">
         <v>2.5812916258348608E-2</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="10">
         <v>7.3627225864399404E-2</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="10">
         <v>0.24014465959474598</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="10">
         <v>5.6216249097684476E-3</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="10">
         <v>7.8000536043938338E-6</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="10">
         <v>4.271782269065802E-5</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="10">
         <v>6.9740417964785356E-6</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X22" s="10">
         <v>1.8637381409162954E-6</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="Y22" s="10">
         <v>2.5033603065314938E-3</v>
       </c>
-      <c r="Z22" s="13">
+      <c r="Z22" s="10">
         <v>5.6561030244693829E-4</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="10">
         <v>7.0305653479464198E-3</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AB22" s="10">
         <v>4.4198650304873427E-5</v>
       </c>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="10">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13">
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10">
         <v>145.80000000000001</v>
       </c>
     </row>
@@ -4134,22 +4119,22 @@
       <c r="D23" s="10">
         <v>97.22999999999999</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>2.7700000000000102</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>15.9361</v>
       </c>
       <c r="G23" s="10">
         <v>148.89594994817546</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>12.68</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>400</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="10">
         <v>293.40692914970214</v>
       </c>
       <c r="K23" s="10">
@@ -4158,69 +4143,69 @@
       <c r="L23" s="10">
         <v>35.23025846584941</v>
       </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
         <v>6.17</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="10">
         <v>45.5</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="10">
         <v>0.18</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="10">
         <v>5.6428436915887857E-2</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="10">
         <v>0.10585603971962618</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="10">
         <v>6.0340394859813087E-2</v>
       </c>
-      <c r="T23" s="13">
+      <c r="T23" s="10">
         <v>4.2138829439252335E-3</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="10">
         <v>7.9703649532710287E-6</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="10">
         <v>2.4604808411214957E-5</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="10">
         <v>6.7500196261682237E-6</v>
       </c>
-      <c r="X23" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="13">
+      <c r="X23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10">
         <v>6.430023364485982E-4</v>
       </c>
-      <c r="Z23" s="13">
+      <c r="Z23" s="10">
         <v>3.9183422897196262E-4</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="10">
         <v>6.4865537383177558E-3</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="10">
         <v>8.8692121009099223E-5</v>
       </c>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="13">
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="10">
         <v>0.08</v>
       </c>
-      <c r="AH23" s="13">
+      <c r="AH23" s="10">
         <v>1.26</v>
       </c>
-      <c r="AI23" s="13">
+      <c r="AI23" s="10">
         <v>132.1</v>
       </c>
     </row>
@@ -4237,89 +4222,89 @@
       <c r="D24" s="10">
         <v>97.399999999999991</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>2.6000000000000085</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>40.220999999999997</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10">
         <v>15</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <v>0</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <v>81.599999999999994</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="10">
         <v>13.6</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="10">
         <v>1.9</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="10">
         <v>0.1</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="10">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="10">
         <v>0.183</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="10">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="10">
         <v>3.4400000000000001E-6</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X24" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="13">
+      <c r="X24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="10">
         <v>2.4299999999999999E-3</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="Z24" s="10">
         <v>4.3499999999999995E-4</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="10">
         <v>8.7299999999999999E-3</v>
       </c>
-      <c r="AB24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="13">
+      <c r="AB24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="10">
         <v>0.2</v>
       </c>
-      <c r="AH24" s="13">
+      <c r="AH24" s="10">
         <v>6.68</v>
       </c>
-      <c r="AI24" s="13"/>
+      <c r="AI24" s="10"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -4334,89 +4319,89 @@
       <c r="D25" s="10">
         <v>100</v>
       </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
         <v>41.361600000000003</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10">
         <v>15</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="10">
         <v>0</v>
       </c>
       <c r="K25" s="10">
         <v>0</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <v>86.1</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="10">
         <v>13</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="10">
         <v>0.9</v>
       </c>
-      <c r="P25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="11">
+      <c r="P25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="10">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="10">
         <v>0.183</v>
       </c>
-      <c r="T25" s="13">
+      <c r="T25" s="10">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="10">
         <v>3.4400000000000001E-6</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X25" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="13">
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10">
         <v>2.4299999999999999E-3</v>
       </c>
-      <c r="Z25" s="13">
+      <c r="Z25" s="10">
         <v>4.3499999999999995E-4</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AA25" s="10">
         <v>8.7299999999999999E-3</v>
       </c>
-      <c r="AB25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="13">
+      <c r="AB25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="10">
         <v>6.68</v>
       </c>
-      <c r="AI25" s="13"/>
+      <c r="AI25" s="10"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -4431,89 +4416,89 @@
       <c r="D26" s="10">
         <v>98.639999999999986</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>1.3600000000000136</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>28.3063</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10">
         <v>25</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <v>0</v>
       </c>
       <c r="K26" s="10">
         <v>0</v>
       </c>
       <c r="L26" s="10"/>
-      <c r="M26" s="11">
+      <c r="M26" s="10">
         <v>68.5</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="10">
         <v>8</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="10">
         <v>21.9</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="10">
         <v>0.16</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="10">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="10">
         <v>0.183</v>
       </c>
-      <c r="T26" s="13">
+      <c r="T26" s="10">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="10">
         <v>3.4400000000000001E-6</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X26" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="13">
+      <c r="X26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="10">
         <v>2.4299999999999999E-3</v>
       </c>
-      <c r="Z26" s="13">
+      <c r="Z26" s="10">
         <v>4.3499999999999995E-4</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="10">
         <v>8.7299999999999999E-3</v>
       </c>
-      <c r="AB26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="13">
+      <c r="AB26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="10">
         <v>0.08</v>
       </c>
-      <c r="AH26" s="13">
+      <c r="AH26" s="10">
         <v>6.68</v>
       </c>
-      <c r="AI26" s="13">
+      <c r="AI26" s="10">
         <v>0</v>
       </c>
     </row>
@@ -4530,87 +4515,87 @@
       <c r="D27" s="10">
         <v>100</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
         <v>42.087000000000003</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10">
         <v>85</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <v>0</v>
       </c>
       <c r="K27" s="10">
         <v>0</v>
       </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="11">
+      <c r="M27" s="10">
         <v>86.1</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="10">
         <v>13.7</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="10">
         <v>0.2</v>
       </c>
-      <c r="P27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
+      <c r="P27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="10">
         <v>7.5599999999999999E-3</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="S27" s="13">
+      <c r="S27" s="10">
         <v>0.17499999999999999</v>
       </c>
-      <c r="T27" s="13">
+      <c r="T27" s="10">
         <v>2.24E-2</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U27" s="10">
         <v>3.5099999999999999E-5</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="10">
         <v>4.7800000000000003E-5</v>
       </c>
-      <c r="W27" s="13">
+      <c r="W27" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X27" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="13">
+      <c r="X27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="10">
         <v>7.3200000000000001E-3</v>
       </c>
-      <c r="Z27" s="13">
+      <c r="Z27" s="10">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="10">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="13">
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="10">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AI27" s="13"/>
+      <c r="AI27" s="10"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -4625,87 +4610,87 @@
       <c r="D28" s="10">
         <v>98.7</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>1.2999999999999972</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>37.6053</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10">
         <v>85</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <v>0</v>
       </c>
       <c r="K28" s="10">
         <v>0</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="11">
+      <c r="M28" s="10">
         <v>83.8</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="10">
         <v>9.5</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="10">
         <v>0.96</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="10">
         <v>3.31</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="10">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="S28" s="13">
+      <c r="S28" s="10">
         <v>0.183</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="10">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="10">
         <v>3.4400000000000001E-6</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X28" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="13">
+      <c r="X28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="10">
         <v>2.4299999999999999E-3</v>
       </c>
-      <c r="Z28" s="13">
+      <c r="Z28" s="10">
         <v>4.3499999999999995E-4</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="10">
         <v>8.7299999999999999E-3</v>
       </c>
-      <c r="AB28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="13">
+      <c r="AB28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AG28" s="13">
+      <c r="AG28" s="10">
         <v>0.03</v>
       </c>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -4720,87 +4705,87 @@
       <c r="D29" s="10">
         <v>89.800000000000011</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>10.199999999999989</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>24.491499999999998</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10">
         <v>70.156872509960181</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="10">
         <v>0</v>
       </c>
       <c r="K29" s="10">
         <v>0</v>
       </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="11">
+      <c r="M29" s="10">
         <v>60</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="10">
         <v>7.2</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="10">
         <v>22.6</v>
       </c>
-      <c r="P29" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="11">
+      <c r="P29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="10">
         <v>0.32460911354581684</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="10">
         <v>8.9957320717131486E-2</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="10">
         <v>9.8289442231075691E-2</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="10">
         <v>6.9094422310756994E-3</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="10">
         <v>3.4380428286852588E-6</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="10">
         <v>2.0000000000000005E-5</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="10">
         <v>2.4467928286852592E-6</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="10">
         <v>1.2667425851223853E-6</v>
       </c>
-      <c r="Y29" s="13">
+      <c r="Y29" s="10">
         <v>9.1522061752988011E-4</v>
       </c>
-      <c r="Z29" s="13">
+      <c r="Z29" s="10">
         <v>6.9094820717131443E-4</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="10">
         <v>8.1427539840637445E-3</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="10">
         <v>4.960221707829605E-5</v>
       </c>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13">
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10">
         <v>0</v>
       </c>
     </row>
@@ -4817,89 +4802,89 @@
       <c r="D30" s="10">
         <v>93.279999999999973</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>6.7200000000000273</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>30.117000000000001</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10">
         <v>90</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="10">
         <v>0</v>
       </c>
       <c r="K30" s="10">
         <v>0</v>
       </c>
       <c r="L30" s="10"/>
-      <c r="M30" s="11">
+      <c r="M30" s="10">
         <v>67.209999999999994</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="10">
         <v>9.7200000000000006</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="10">
         <v>15.82</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="10">
         <v>0.46</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="10">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="10">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="S30" s="13">
+      <c r="S30" s="10">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="10">
         <v>3.9199999999999999E-3</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="10">
         <v>3.4299999999999998E-6</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="W30" s="13">
+      <c r="W30" s="10">
         <v>4.34E-6</v>
       </c>
-      <c r="X30" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="13">
+      <c r="X30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="10">
         <v>8.1400000000000005E-4</v>
       </c>
-      <c r="Z30" s="13">
+      <c r="Z30" s="10">
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA30" s="10">
         <v>9.5300000000000003E-3</v>
       </c>
-      <c r="AB30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="13">
+      <c r="AB30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AH30" s="13">
+      <c r="AH30" s="10">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="AI30" s="13"/>
+      <c r="AI30" s="10"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -4914,89 +4899,89 @@
       <c r="D31" s="10">
         <v>94.5</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>5.5</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>31.112300000000001</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10">
         <v>85</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="10">
         <v>0</v>
       </c>
       <c r="K31" s="10">
         <v>0</v>
       </c>
       <c r="L31" s="10"/>
-      <c r="M31" s="11">
+      <c r="M31" s="10">
         <v>68.580499999999986</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="10">
         <v>11.06</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="10">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="10">
         <v>0.56100000000000005</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="10">
         <v>0.121</v>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="10">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="10">
         <v>9.4800000000000006E-3</v>
       </c>
-      <c r="U31" s="13">
+      <c r="U31" s="10">
         <v>3.4400000000000001E-6</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="W31" s="13">
+      <c r="W31" s="10">
         <v>1.9800000000000001E-6</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="10">
         <v>2.2650214701030709E-6</v>
       </c>
-      <c r="Y31" s="13">
+      <c r="Y31" s="10">
         <v>2.8700000000000004E-4</v>
       </c>
-      <c r="Z31" s="13">
+      <c r="Z31" s="10">
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AA31" s="10">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="AB31" s="13">
+      <c r="AB31" s="10">
         <v>8.8692121009099223E-5</v>
       </c>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="13">
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="10">
         <v>4.6074999999999999</v>
       </c>
-      <c r="AG31" s="13">
+      <c r="AG31" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AH31" s="13">
+      <c r="AH31" s="10">
         <v>0.56499999999999995</v>
       </c>
-      <c r="AI31" s="13">
+      <c r="AI31" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5013,89 +4998,89 @@
       <c r="D32" s="10">
         <v>0</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>100</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>0</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10">
         <v>90</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="10">
         <v>0</v>
       </c>
       <c r="K32" s="10">
         <v>0</v>
       </c>
       <c r="L32" s="10"/>
-      <c r="M32" s="11">
-        <v>0</v>
-      </c>
-      <c r="N32" s="11">
-        <v>0</v>
-      </c>
-      <c r="O32" s="11">
-        <v>0</v>
-      </c>
-      <c r="P32" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="11">
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="10">
         <v>2.12E-2</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32" s="10">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="S32" s="13">
+      <c r="S32" s="10">
         <v>72.7</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="10">
         <v>1.4899999999999999E-4</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="X32" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="13">
+      <c r="X32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="10">
         <v>1.72E-2</v>
       </c>
-      <c r="Z32" s="13">
+      <c r="Z32" s="10">
         <v>2.4100000000000002E-3</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AA32" s="10">
         <v>2.75E-2</v>
       </c>
-      <c r="AB32" s="13">
+      <c r="AB32" s="10">
         <v>9.2212072296719112E-5</v>
       </c>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="13">
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="10">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="AH32" s="13">
+      <c r="AH32" s="10">
         <v>21.5</v>
       </c>
-      <c r="AI32" s="13">
+      <c r="AI32" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5112,89 +5097,89 @@
       <c r="D33" s="10">
         <v>0</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>100</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>0</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10">
         <v>90</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="10">
         <v>0</v>
       </c>
       <c r="K33" s="10">
         <v>0</v>
       </c>
       <c r="L33" s="10"/>
-      <c r="M33" s="11">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
-        <v>0</v>
-      </c>
-      <c r="O33" s="11">
-        <v>0</v>
-      </c>
-      <c r="P33" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="11">
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="10">
         <v>2.12E-2</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="10">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="S33" s="13">
+      <c r="S33" s="10">
         <v>72.7</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="U33" s="13">
+      <c r="U33" s="10">
         <v>1.4899999999999999E-4</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="W33" s="13">
+      <c r="W33" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="X33" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="13">
+      <c r="X33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="10">
         <v>1.72E-2</v>
       </c>
-      <c r="Z33" s="13">
+      <c r="Z33" s="10">
         <v>2.4100000000000002E-3</v>
       </c>
-      <c r="AA33" s="13">
+      <c r="AA33" s="10">
         <v>2.75E-2</v>
       </c>
-      <c r="AB33" s="13">
+      <c r="AB33" s="10">
         <v>9.2212072296719112E-5</v>
       </c>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="13">
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="10">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="AH33" s="13">
+      <c r="AH33" s="10">
         <v>3.78</v>
       </c>
-      <c r="AI33" s="13">
+      <c r="AI33" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5211,89 +5196,89 @@
       <c r="D34" s="10">
         <v>0</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>100</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>0</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10">
         <v>40</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="10">
         <v>0</v>
       </c>
       <c r="K34" s="10">
         <v>0</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-      <c r="N34" s="11">
-        <v>0</v>
-      </c>
-      <c r="O34" s="11">
-        <v>0</v>
-      </c>
-      <c r="P34" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="11">
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="10">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="S34" s="13">
+      <c r="S34" s="10">
         <v>34.5</v>
       </c>
-      <c r="T34" s="13">
+      <c r="T34" s="10">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="U34" s="13">
+      <c r="U34" s="10">
         <v>4.71E-5</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="10">
         <v>9.1300000000000007E-4</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W34" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="X34" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="13">
+      <c r="X34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="10">
         <v>1.09E-2</v>
       </c>
-      <c r="Z34" s="13">
+      <c r="Z34" s="10">
         <v>1.8399999999999998E-3</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AA34" s="10">
         <v>1.01E-2</v>
       </c>
-      <c r="AB34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="13">
+      <c r="AB34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="10">
         <v>62.8</v>
       </c>
-      <c r="AI34" s="13">
+      <c r="AI34" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5310,89 +5295,89 @@
       <c r="D35" s="10">
         <v>0</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>100</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>0</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10">
         <v>40</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="10">
         <v>0</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="10"/>
-      <c r="M35" s="11">
-        <v>0</v>
-      </c>
-      <c r="N35" s="11">
-        <v>0</v>
-      </c>
-      <c r="O35" s="11">
-        <v>0</v>
-      </c>
-      <c r="P35" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="11">
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="10">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="10">
         <v>0.11899999999999999</v>
       </c>
-      <c r="S35" s="13">
+      <c r="S35" s="10">
         <v>2.39</v>
       </c>
-      <c r="T35" s="13">
+      <c r="T35" s="10">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U35" s="10">
         <v>5.4800000000000004E-5</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="W35" s="13">
+      <c r="W35" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="X35" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="13">
+      <c r="X35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="10">
         <v>5.79E-3</v>
       </c>
-      <c r="Z35" s="13">
+      <c r="Z35" s="10">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA35" s="13">
+      <c r="AA35" s="10">
         <v>2.92E-2</v>
       </c>
-      <c r="AB35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="13">
+      <c r="AB35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="10">
         <v>86.1</v>
       </c>
-      <c r="AI35" s="13">
+      <c r="AI35" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5409,89 +5394,89 @@
       <c r="D36" s="10">
         <v>0</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>100</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>0</v>
       </c>
       <c r="G36" s="10">
         <v>0</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11">
+      <c r="H36" s="10"/>
+      <c r="I36" s="10">
         <v>40</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="10">
         <v>0</v>
       </c>
       <c r="K36" s="10">
         <v>0</v>
       </c>
       <c r="L36" s="10"/>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11">
-        <v>0</v>
-      </c>
-      <c r="O36" s="11">
-        <v>0</v>
-      </c>
-      <c r="P36" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="11">
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="10">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="10">
         <v>0.11899999999999999</v>
       </c>
-      <c r="S36" s="13">
+      <c r="S36" s="10">
         <v>2.39</v>
       </c>
-      <c r="T36" s="13">
+      <c r="T36" s="10">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="U36" s="13">
+      <c r="U36" s="10">
         <v>5.4800000000000004E-5</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V36" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="W36" s="13">
+      <c r="W36" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="X36" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="13">
+      <c r="X36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="10">
         <v>5.79E-3</v>
       </c>
-      <c r="Z36" s="13">
+      <c r="Z36" s="10">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA36" s="13">
+      <c r="AA36" s="10">
         <v>2.92E-2</v>
       </c>
-      <c r="AB36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="13">
+      <c r="AB36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="10">
         <v>86.1</v>
       </c>
-      <c r="AI36" s="13">
+      <c r="AI36" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5508,89 +5493,89 @@
       <c r="D37" s="10">
         <v>0</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>100</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>0</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10">
         <v>90</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="10">
         <v>0</v>
       </c>
       <c r="K37" s="10">
         <v>0</v>
       </c>
       <c r="L37" s="10"/>
-      <c r="M37" s="11">
-        <v>0</v>
-      </c>
-      <c r="N37" s="11">
-        <v>0</v>
-      </c>
-      <c r="O37" s="11">
-        <v>0</v>
-      </c>
-      <c r="P37" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="11">
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10">
         <v>2.12E-2</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="10">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="S37" s="13">
+      <c r="S37" s="10">
         <v>72.7</v>
       </c>
-      <c r="T37" s="13">
+      <c r="T37" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U37" s="10">
         <v>1.4899999999999999E-4</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W37" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="X37" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="13">
+      <c r="X37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="10">
         <v>1.72E-2</v>
       </c>
-      <c r="Z37" s="13">
+      <c r="Z37" s="10">
         <v>2.4100000000000002E-3</v>
       </c>
-      <c r="AA37" s="13">
+      <c r="AA37" s="10">
         <v>2.75E-2</v>
       </c>
-      <c r="AB37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="13">
+      <c r="AB37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="10">
         <v>21.5</v>
       </c>
-      <c r="AI37" s="13">
+      <c r="AI37" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5607,89 +5592,89 @@
       <c r="D38" s="10">
         <v>0</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>100</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>0</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10">
         <v>40</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="10">
         <v>0</v>
       </c>
       <c r="K38" s="10">
         <v>0</v>
       </c>
       <c r="L38" s="10"/>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-      <c r="N38" s="11">
-        <v>0</v>
-      </c>
-      <c r="O38" s="11">
-        <v>0</v>
-      </c>
-      <c r="P38" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="11">
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="10">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="10">
         <v>0.11899999999999999</v>
       </c>
-      <c r="S38" s="13">
+      <c r="S38" s="10">
         <v>2.39</v>
       </c>
-      <c r="T38" s="13">
+      <c r="T38" s="10">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U38" s="10">
         <v>5.4800000000000004E-5</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="W38" s="13">
+      <c r="W38" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="X38" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="13">
+      <c r="X38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="10">
         <v>5.79E-3</v>
       </c>
-      <c r="Z38" s="13">
+      <c r="Z38" s="10">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA38" s="13">
+      <c r="AA38" s="10">
         <v>2.92E-2</v>
       </c>
-      <c r="AB38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="13">
+      <c r="AB38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="10">
         <v>0.152</v>
       </c>
-      <c r="AI38" s="13">
+      <c r="AI38" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5706,89 +5691,89 @@
       <c r="D39" s="10">
         <v>0</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>100</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>0</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10">
         <v>1300</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="10">
         <v>0</v>
       </c>
       <c r="K39" s="10">
         <v>0</v>
       </c>
       <c r="L39" s="10"/>
-      <c r="M39" s="11">
-        <v>0</v>
-      </c>
-      <c r="N39" s="11">
-        <v>0</v>
-      </c>
-      <c r="O39" s="11">
-        <v>0</v>
-      </c>
-      <c r="P39" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="11">
+      <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R39" s="10">
         <v>0.70099999999999996</v>
       </c>
-      <c r="S39" s="13">
+      <c r="S39" s="10">
         <v>0.24</v>
       </c>
-      <c r="T39" s="13">
+      <c r="T39" s="10">
         <v>1.2900000000000001E-3</v>
       </c>
-      <c r="U39" s="13">
+      <c r="U39" s="10">
         <v>1.2E-5</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="10">
         <v>4.0700000000000003E-4</v>
       </c>
-      <c r="W39" s="13">
+      <c r="W39" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="10">
         <v>3.0574591807673789E-6</v>
       </c>
-      <c r="Y39" s="13">
+      <c r="Y39" s="10">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="Z39" s="13">
+      <c r="Z39" s="10">
         <v>6.62E-3</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AA39" s="10">
         <v>4.1399999999999996E-3</v>
       </c>
-      <c r="AB39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="13">
+      <c r="AB39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="10">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="AH39" s="13">
+      <c r="AH39" s="10">
         <v>0.98699999999999999</v>
       </c>
-      <c r="AI39" s="13">
+      <c r="AI39" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5805,89 +5790,89 @@
       <c r="D40" s="10">
         <v>0</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>100</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>0</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10">
         <v>1300</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="10">
         <v>0</v>
       </c>
       <c r="K40" s="10">
         <v>0</v>
       </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
-        <v>0</v>
-      </c>
-      <c r="O40" s="11">
-        <v>0</v>
-      </c>
-      <c r="P40" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="11">
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="10">
         <v>9.5499999999999995E-3</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R40" s="10">
         <v>0.77500000000000002</v>
       </c>
-      <c r="S40" s="13">
+      <c r="S40" s="10">
         <v>0.17599999999999999</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="10">
         <v>1.4300000000000001E-3</v>
       </c>
-      <c r="U40" s="13">
+      <c r="U40" s="10">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="V40" s="13">
+      <c r="V40" s="10">
         <v>6.5300000000000004E-4</v>
       </c>
-      <c r="W40" s="13">
+      <c r="W40" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="10">
         <v>3.0574591807673789E-6</v>
       </c>
-      <c r="Y40" s="13">
+      <c r="Y40" s="10">
         <v>0.11899999999999999</v>
       </c>
-      <c r="Z40" s="13">
+      <c r="Z40" s="10">
         <v>8.8900000000000003E-3</v>
       </c>
-      <c r="AA40" s="13">
+      <c r="AA40" s="10">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="AB40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="13">
+      <c r="AB40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="10">
         <v>1.11E-2</v>
       </c>
-      <c r="AH40" s="13">
+      <c r="AH40" s="10">
         <v>0.76200000000000001</v>
       </c>
-      <c r="AI40" s="13">
+      <c r="AI40" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5904,89 +5889,89 @@
       <c r="D41" s="10">
         <v>0</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>100</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>0</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11">
+      <c r="H41" s="10"/>
+      <c r="I41" s="10">
         <v>1300</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="10">
         <v>0</v>
       </c>
       <c r="K41" s="10">
         <v>0</v>
       </c>
       <c r="L41" s="10"/>
-      <c r="M41" s="11">
-        <v>0</v>
-      </c>
-      <c r="N41" s="11">
-        <v>0</v>
-      </c>
-      <c r="O41" s="11">
-        <v>0</v>
-      </c>
-      <c r="P41" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="11">
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="10">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R41" s="10">
         <v>0.36499999999999999</v>
       </c>
-      <c r="S41" s="13">
+      <c r="S41" s="10">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="T41" s="13">
+      <c r="T41" s="10">
         <v>3.5099999999999997E-4</v>
       </c>
-      <c r="U41" s="13">
+      <c r="U41" s="10">
         <v>1.2099999999999999E-5</v>
       </c>
-      <c r="V41" s="13">
+      <c r="V41" s="10">
         <v>3.1199999999999999E-4</v>
       </c>
-      <c r="W41" s="13">
+      <c r="W41" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="10">
         <v>3.0574591807673789E-6</v>
       </c>
-      <c r="Y41" s="13">
+      <c r="Y41" s="10">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="Z41" s="13">
+      <c r="Z41" s="10">
         <v>7.5700000000000003E-3</v>
       </c>
-      <c r="AA41" s="13">
+      <c r="AA41" s="10">
         <v>3.2499999999999999E-3</v>
       </c>
-      <c r="AB41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="13">
+      <c r="AB41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="10">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="AH41" s="13">
+      <c r="AH41" s="10">
         <v>0.68600000000000005</v>
       </c>
-      <c r="AI41" s="13">
+      <c r="AI41" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6003,89 +5988,89 @@
       <c r="D42" s="10">
         <v>0</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>100</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>0</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
       </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
         <v>1300</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="10">
         <v>0</v>
       </c>
       <c r="K42" s="10">
         <v>0</v>
       </c>
       <c r="L42" s="10"/>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-      <c r="N42" s="11">
-        <v>0</v>
-      </c>
-      <c r="O42" s="11">
-        <v>0</v>
-      </c>
-      <c r="P42" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="11">
+      <c r="M42" s="10">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="10">
         <v>8.3750000000000005E-3</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="10">
         <v>0.51733333333333331</v>
       </c>
-      <c r="S42" s="13">
+      <c r="S42" s="10">
         <v>0.11715833333333334</v>
       </c>
-      <c r="T42" s="13">
+      <c r="T42" s="10">
         <v>7.6558333333333339E-4</v>
       </c>
-      <c r="U42" s="13">
+      <c r="U42" s="10">
         <v>1.2724999999999998E-5</v>
       </c>
-      <c r="V42" s="13">
+      <c r="V42" s="10">
         <v>3.9258333333333333E-4</v>
       </c>
-      <c r="W42" s="13">
+      <c r="W42" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X42" s="13">
+      <c r="X42" s="10">
         <v>3.0574591807673785E-6</v>
       </c>
-      <c r="Y42" s="13">
+      <c r="Y42" s="10">
         <v>2.7041666666666665E-2</v>
       </c>
-      <c r="Z42" s="13">
+      <c r="Z42" s="10">
         <v>7.5525000000000002E-3</v>
       </c>
-      <c r="AA42" s="13">
+      <c r="AA42" s="10">
         <v>3.6808333333333337E-3</v>
       </c>
-      <c r="AB42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="13">
+      <c r="AB42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="10">
         <v>4.3049999999999998E-2</v>
       </c>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13">
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6102,89 +6087,89 @@
       <c r="D43" s="10">
         <v>0</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>100</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>0</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10">
         <v>1300</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="10">
         <v>0</v>
       </c>
       <c r="K43" s="10">
         <v>0</v>
       </c>
       <c r="L43" s="10"/>
-      <c r="M43" s="11">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <v>0</v>
-      </c>
-      <c r="O43" s="11">
-        <v>0</v>
-      </c>
-      <c r="P43" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="11">
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="10">
         <v>7.1624999999999996E-3</v>
       </c>
-      <c r="R43" s="11">
+      <c r="R43" s="10">
         <v>0.44330000000000003</v>
       </c>
-      <c r="S43" s="13">
+      <c r="S43" s="10">
         <v>7.6560000000000003E-2</v>
       </c>
-      <c r="T43" s="13">
+      <c r="T43" s="10">
         <v>5.5979999999999995E-4</v>
       </c>
-      <c r="U43" s="13">
+      <c r="U43" s="10">
         <v>1.2679999999999999E-5</v>
       </c>
-      <c r="V43" s="13">
+      <c r="V43" s="10">
         <v>3.6790000000000005E-4</v>
       </c>
-      <c r="W43" s="13">
+      <c r="W43" s="10">
         <v>1.0000000000000003E-5</v>
       </c>
-      <c r="X43" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="13">
+      <c r="X43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="10">
         <v>2.1819999999999999E-2</v>
       </c>
-      <c r="Z43" s="13">
+      <c r="Z43" s="10">
         <v>7.7205000000000017E-3</v>
       </c>
-      <c r="AA43" s="13">
+      <c r="AA43" s="10">
         <v>3.4819999999999999E-3</v>
       </c>
-      <c r="AB43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="13">
+      <c r="AB43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="10">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="AH43" s="13">
+      <c r="AH43" s="10">
         <v>0.71199999999999997</v>
       </c>
-      <c r="AI43" s="13">
+      <c r="AI43" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6201,22 +6186,22 @@
       <c r="D44" s="10">
         <v>87</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>13</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>14.5459</v>
       </c>
       <c r="G44" s="10">
         <v>170.73675477087818</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <v>9.2572496018746921</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="10">
         <v>238.28908308353775</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="10">
         <v>220.09701697472141</v>
       </c>
       <c r="K44" s="10">
@@ -6225,69 +6210,69 @@
       <c r="L44" s="10">
         <v>45.398904248394587</v>
       </c>
-      <c r="M44" s="11">
-        <v>0</v>
-      </c>
-      <c r="N44" s="11">
+      <c r="M44" s="10">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
         <v>5.64</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="10">
         <v>39</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P44" s="10">
         <v>2</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q44" s="10">
         <v>0.1135583468453069</v>
       </c>
-      <c r="R44" s="11">
+      <c r="R44" s="10">
         <v>0.55166450804672795</v>
       </c>
-      <c r="S44" s="13">
+      <c r="S44" s="10">
         <v>0.13234228985261279</v>
       </c>
-      <c r="T44" s="13">
+      <c r="T44" s="10">
         <v>3.6616391275360819E-3</v>
       </c>
-      <c r="U44" s="13">
+      <c r="U44" s="10">
         <v>2.2383742330356662E-5</v>
       </c>
-      <c r="V44" s="13">
+      <c r="V44" s="10">
         <v>1.4857337200467008E-2</v>
       </c>
-      <c r="W44" s="13">
+      <c r="W44" s="10">
         <v>1.0624982831429394E-5</v>
       </c>
-      <c r="X44" s="13">
+      <c r="X44" s="10">
         <v>8.1138497293452932E-7</v>
       </c>
-      <c r="Y44" s="13">
+      <c r="Y44" s="10">
         <v>2.3550789462190878E-2</v>
       </c>
-      <c r="Z44" s="13">
+      <c r="Z44" s="10">
         <v>2.5825308806356746E-3</v>
       </c>
-      <c r="AA44" s="13">
+      <c r="AA44" s="10">
         <v>2.9440038294455184E-2</v>
       </c>
-      <c r="AB44" s="13">
+      <c r="AB44" s="10">
         <v>8.9381880998762607E-5</v>
       </c>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="13">
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="10">
         <v>0.05</v>
       </c>
-      <c r="AH44" s="13">
+      <c r="AH44" s="10">
         <v>0.35799999999999998</v>
       </c>
-      <c r="AI44" s="13">
+      <c r="AI44" s="10">
         <v>124.47629928775075</v>
       </c>
     </row>
@@ -6304,89 +6289,89 @@
       <c r="D45" s="10">
         <v>0</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>100</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>0</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11">
-        <v>0</v>
-      </c>
-      <c r="J45" s="12">
+      <c r="H45" s="10"/>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
         <v>0</v>
       </c>
       <c r="K45" s="10">
         <v>0</v>
       </c>
       <c r="L45" s="10"/>
-      <c r="M45" s="11">
-        <v>0</v>
-      </c>
-      <c r="N45" s="11">
-        <v>0</v>
-      </c>
-      <c r="O45" s="11">
-        <v>0</v>
-      </c>
-      <c r="P45" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="11">
+      <c r="M45" s="10">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10">
+        <v>0</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R45" s="10">
         <v>1.04</v>
       </c>
-      <c r="S45" s="13">
+      <c r="S45" s="10">
         <v>0.16</v>
       </c>
-      <c r="T45" s="13">
+      <c r="T45" s="10">
         <v>9.41E-3</v>
       </c>
-      <c r="U45" s="13">
+      <c r="U45" s="10">
         <v>7.9100000000000004E-4</v>
       </c>
-      <c r="V45" s="13">
+      <c r="V45" s="10">
         <v>6.3799999999999994E-3</v>
       </c>
-      <c r="W45" s="13">
+      <c r="W45" s="10">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="X45" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="13">
+      <c r="X45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="Z45" s="13">
+      <c r="Z45" s="10">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="AA45" s="13">
+      <c r="AA45" s="10">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AB45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="13">
+      <c r="AB45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AI45" s="13">
+      <c r="AI45" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6397,67 +6382,67 @@
       <c r="B46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="C46" s="10">
+        <v>0</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
         <v>100</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="10">
         <v>0</v>
       </c>
       <c r="G46" s="10">
         <v>0</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="12">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
-      </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4">
-        <v>0</v>
-      </c>
-      <c r="N46" s="4">
-        <v>0</v>
-      </c>
-      <c r="O46" s="4">
-        <v>0</v>
-      </c>
-      <c r="P46" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="4">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10">
+        <v>0</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="10">
         <v>0.13</v>
       </c>
-      <c r="AI46" s="4"/>
+      <c r="AI46" s="10"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -6466,67 +6451,67 @@
       <c r="B47" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
         <v>100</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="10">
         <v>0</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4">
+      <c r="H47" s="10"/>
+      <c r="I47" s="10">
         <v>620</v>
       </c>
-      <c r="J47" s="12">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4">
-        <v>0</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0</v>
-      </c>
-      <c r="O47" s="4">
-        <v>0</v>
-      </c>
-      <c r="P47" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="4"/>
-      <c r="AI47" s="4"/>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="10">
+        <v>0</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10">
+        <v>0</v>
+      </c>
+      <c r="N47" s="10">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -6541,59 +6526,59 @@
       <c r="D48" s="10">
         <v>0</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>100</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>0</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="12">
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10">
         <v>0</v>
       </c>
       <c r="K48" s="10">
         <v>0</v>
       </c>
       <c r="L48" s="10"/>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-      <c r="N48" s="11">
-        <v>0</v>
-      </c>
-      <c r="O48" s="11">
-        <v>0</v>
-      </c>
-      <c r="P48" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
+      <c r="M48" s="10">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10">
+        <v>0</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -6608,61 +6593,61 @@
       <c r="D49" s="10">
         <v>29.8</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>70.2</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>6.7696800000000001</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11">
+      <c r="H49" s="10"/>
+      <c r="I49" s="10">
         <v>620</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="10">
         <v>0</v>
       </c>
       <c r="K49" s="10">
         <v>0</v>
       </c>
       <c r="L49" s="10"/>
-      <c r="M49" s="11">
+      <c r="M49" s="10">
         <v>28</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="10">
         <v>0.5</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O49" s="10">
         <v>0.8</v>
       </c>
-      <c r="P49" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="13">
+      <c r="P49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="10">
         <v>0.5</v>
       </c>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -6671,67 +6656,67 @@
       <c r="B50" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
         <v>3.1719999999999997</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="10">
         <v>96.828000000000003</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="10">
         <v>0</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4">
+      <c r="H50" s="10"/>
+      <c r="I50" s="10">
         <v>620</v>
       </c>
-      <c r="J50" s="12">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4">
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10">
         <v>2.4140000000000001</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="10">
         <v>0.154</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="10">
         <v>0.254</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="4">
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="10">
         <v>0.2</v>
       </c>
-      <c r="AH50" s="4"/>
-      <c r="AI50" s="4"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -6746,20 +6731,20 @@
       <c r="D51" s="10">
         <v>94.2</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <v>5.7999999999999972</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>23.142399999999999</v>
       </c>
       <c r="G51" s="10">
         <v>406.93503089295513</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="10">
         <v>3.08</v>
       </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="12">
+      <c r="I51" s="10"/>
+      <c r="J51" s="10">
         <v>61.537660728404774</v>
       </c>
       <c r="K51" s="10">
@@ -6768,73 +6753,73 @@
       <c r="L51" s="10">
         <v>87.635792688260608</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="10">
         <v>5.5291904552774112</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="10">
         <v>8</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O51" s="10">
         <v>27.33</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P51" s="10">
         <v>0.9</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q51" s="10">
         <v>6.0800000000000007E-2</v>
       </c>
-      <c r="R51" s="11">
+      <c r="R51" s="10">
         <v>0.14100000000000001</v>
       </c>
-      <c r="S51" s="13">
+      <c r="S51" s="10">
         <v>1.5200000000000002E-2</v>
       </c>
-      <c r="T51" s="13">
+      <c r="T51" s="10">
         <v>5.0999999999999993E-4</v>
       </c>
-      <c r="U51" s="13">
+      <c r="U51" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="V51" s="13">
+      <c r="V51" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="W51" s="13">
+      <c r="W51" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="X51" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="13">
+      <c r="X51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="10">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="Z51" s="13">
+      <c r="Z51" s="10">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="AA51" s="13">
+      <c r="AA51" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AB51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="13">
+      <c r="AB51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AG51" s="13">
+      <c r="AG51" s="10">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="AH51" s="13">
+      <c r="AH51" s="10">
         <v>4.5399999999999996E-2</v>
       </c>
-      <c r="AI51" s="13"/>
+      <c r="AI51" s="10"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -6849,57 +6834,57 @@
       <c r="D52" s="10">
         <v>0</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10">
         <v>0</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="12">
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10">
         <v>0</v>
       </c>
       <c r="K52" s="10">
         <v>0</v>
       </c>
       <c r="L52" s="10"/>
-      <c r="M52" s="11">
-        <v>0</v>
-      </c>
-      <c r="N52" s="11">
-        <v>0</v>
-      </c>
-      <c r="O52" s="11">
-        <v>0</v>
-      </c>
-      <c r="P52" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="13"/>
-      <c r="AI52" s="13"/>
+      <c r="M52" s="10">
+        <v>0</v>
+      </c>
+      <c r="N52" s="10">
+        <v>0</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -6914,57 +6899,57 @@
       <c r="D53" s="10">
         <v>0</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10">
         <v>0</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="12">
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10">
         <v>0</v>
       </c>
       <c r="K53" s="10">
         <v>0</v>
       </c>
       <c r="L53" s="10"/>
-      <c r="M53" s="11">
-        <v>0</v>
-      </c>
-      <c r="N53" s="11">
-        <v>0</v>
-      </c>
-      <c r="O53" s="11">
-        <v>0</v>
-      </c>
-      <c r="P53" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="13"/>
-      <c r="AE53" s="13"/>
-      <c r="AF53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="13"/>
-      <c r="AI53" s="13"/>
+      <c r="M53" s="10">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10">
+        <v>0</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -6979,57 +6964,57 @@
       <c r="D54" s="10">
         <v>0</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10">
         <v>0</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="12">
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10">
         <v>0</v>
       </c>
       <c r="K54" s="10">
         <v>0</v>
       </c>
       <c r="L54" s="10"/>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-      <c r="N54" s="11">
-        <v>0</v>
-      </c>
-      <c r="O54" s="11">
-        <v>0</v>
-      </c>
-      <c r="P54" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="13"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="13"/>
-      <c r="AF54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="13"/>
-      <c r="AI54" s="13"/>
+      <c r="M54" s="10">
+        <v>0</v>
+      </c>
+      <c r="N54" s="10">
+        <v>0</v>
+      </c>
+      <c r="O54" s="10">
+        <v>0</v>
+      </c>
+      <c r="P54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -7044,57 +7029,57 @@
       <c r="D55" s="10">
         <v>0</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10">
         <v>0</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="12">
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10">
         <v>0</v>
       </c>
       <c r="K55" s="10">
         <v>0</v>
       </c>
       <c r="L55" s="10"/>
-      <c r="M55" s="11">
-        <v>0</v>
-      </c>
-      <c r="N55" s="11">
-        <v>0</v>
-      </c>
-      <c r="O55" s="11">
-        <v>0</v>
-      </c>
-      <c r="P55" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="13"/>
-      <c r="AF55" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="13"/>
-      <c r="AI55" s="13"/>
+      <c r="M55" s="10">
+        <v>0</v>
+      </c>
+      <c r="N55" s="10">
+        <v>0</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -7109,57 +7094,57 @@
       <c r="D56" s="10">
         <v>0</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10">
         <v>0</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="12">
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10">
         <v>0</v>
       </c>
       <c r="K56" s="10">
         <v>0</v>
       </c>
       <c r="L56" s="10"/>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-      <c r="N56" s="11">
-        <v>0</v>
-      </c>
-      <c r="O56" s="11">
-        <v>0</v>
-      </c>
-      <c r="P56" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="13"/>
-      <c r="AI56" s="13"/>
+      <c r="M56" s="10">
+        <v>0</v>
+      </c>
+      <c r="N56" s="10">
+        <v>0</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0</v>
+      </c>
+      <c r="P56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -7174,57 +7159,57 @@
       <c r="D57" s="10">
         <v>0</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10">
         <v>0</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="12">
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10">
         <v>0</v>
       </c>
       <c r="K57" s="10">
         <v>0</v>
       </c>
       <c r="L57" s="10"/>
-      <c r="M57" s="11">
-        <v>0</v>
-      </c>
-      <c r="N57" s="11">
-        <v>0</v>
-      </c>
-      <c r="O57" s="11">
-        <v>0</v>
-      </c>
-      <c r="P57" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="13"/>
-      <c r="AI57" s="13"/>
+      <c r="M57" s="10">
+        <v>0</v>
+      </c>
+      <c r="N57" s="10">
+        <v>0</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -7239,57 +7224,57 @@
       <c r="D58" s="10">
         <v>0</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10">
         <v>0</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="12">
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10">
         <v>0</v>
       </c>
       <c r="K58" s="10">
         <v>0</v>
       </c>
       <c r="L58" s="10"/>
-      <c r="M58" s="11">
-        <v>0</v>
-      </c>
-      <c r="N58" s="11">
-        <v>0</v>
-      </c>
-      <c r="O58" s="11">
-        <v>0</v>
-      </c>
-      <c r="P58" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
-      <c r="AF58" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="13"/>
-      <c r="AI58" s="13"/>
+      <c r="M58" s="10">
+        <v>0</v>
+      </c>
+      <c r="N58" s="10">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10">
+        <v>0</v>
+      </c>
+      <c r="P58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -7304,57 +7289,57 @@
       <c r="D59" s="10">
         <v>0</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10">
         <v>0</v>
       </c>
       <c r="G59" s="10">
         <v>0</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="12">
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10">
         <v>0</v>
       </c>
       <c r="K59" s="10">
         <v>0</v>
       </c>
       <c r="L59" s="10"/>
-      <c r="M59" s="11">
-        <v>0</v>
-      </c>
-      <c r="N59" s="11">
-        <v>0</v>
-      </c>
-      <c r="O59" s="11">
-        <v>0</v>
-      </c>
-      <c r="P59" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="13"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="13"/>
-      <c r="AI59" s="13"/>
+      <c r="M59" s="10">
+        <v>0</v>
+      </c>
+      <c r="N59" s="10">
+        <v>0</v>
+      </c>
+      <c r="O59" s="10">
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -7369,57 +7354,57 @@
       <c r="D60" s="10">
         <v>0</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10">
         <v>0</v>
       </c>
       <c r="G60" s="10">
         <v>0</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="12">
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10">
         <v>0</v>
       </c>
       <c r="K60" s="10">
         <v>0</v>
       </c>
       <c r="L60" s="10"/>
-      <c r="M60" s="11">
-        <v>0</v>
-      </c>
-      <c r="N60" s="11">
-        <v>0</v>
-      </c>
-      <c r="O60" s="11">
-        <v>0</v>
-      </c>
-      <c r="P60" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="13"/>
-      <c r="AC60" s="13"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="13"/>
-      <c r="AF60" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="13"/>
-      <c r="AI60" s="13"/>
+      <c r="M60" s="10">
+        <v>0</v>
+      </c>
+      <c r="N60" s="10">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10">
+        <v>0</v>
+      </c>
+      <c r="P60" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -7434,57 +7419,57 @@
       <c r="D61" s="10">
         <v>0</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10">
         <v>0</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="12">
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10">
         <v>0</v>
       </c>
       <c r="K61" s="10">
         <v>0</v>
       </c>
       <c r="L61" s="10"/>
-      <c r="M61" s="11">
-        <v>0</v>
-      </c>
-      <c r="N61" s="11">
-        <v>0</v>
-      </c>
-      <c r="O61" s="11">
-        <v>0</v>
-      </c>
-      <c r="P61" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="13"/>
-      <c r="AI61" s="13"/>
+      <c r="M61" s="10">
+        <v>0</v>
+      </c>
+      <c r="N61" s="10">
+        <v>0</v>
+      </c>
+      <c r="O61" s="10">
+        <v>0</v>
+      </c>
+      <c r="P61" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -7499,57 +7484,57 @@
       <c r="D62" s="10">
         <v>0</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10">
         <v>0</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="12">
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10">
         <v>0</v>
       </c>
       <c r="K62" s="10">
         <v>0</v>
       </c>
       <c r="L62" s="10"/>
-      <c r="M62" s="11">
-        <v>0</v>
-      </c>
-      <c r="N62" s="11">
-        <v>0</v>
-      </c>
-      <c r="O62" s="11">
-        <v>0</v>
-      </c>
-      <c r="P62" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="13"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="13"/>
-      <c r="AI62" s="13"/>
+      <c r="M62" s="10">
+        <v>0</v>
+      </c>
+      <c r="N62" s="10">
+        <v>0</v>
+      </c>
+      <c r="O62" s="10">
+        <v>0</v>
+      </c>
+      <c r="P62" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="10"/>
+      <c r="AI62" s="10"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -7564,57 +7549,57 @@
       <c r="D63" s="10">
         <v>0</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11">
+      <c r="E63" s="10"/>
+      <c r="F63" s="10">
         <v>0</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="12">
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10">
         <v>0</v>
       </c>
       <c r="K63" s="10">
         <v>0</v>
       </c>
       <c r="L63" s="10"/>
-      <c r="M63" s="11">
-        <v>0</v>
-      </c>
-      <c r="N63" s="11">
-        <v>0</v>
-      </c>
-      <c r="O63" s="11">
-        <v>0</v>
-      </c>
-      <c r="P63" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="13"/>
-      <c r="AC63" s="13"/>
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="13"/>
-      <c r="AI63" s="13"/>
+      <c r="M63" s="10">
+        <v>0</v>
+      </c>
+      <c r="N63" s="10">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10">
+        <v>0</v>
+      </c>
+      <c r="P63" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -7629,57 +7614,57 @@
       <c r="D64" s="10">
         <v>0</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10">
         <v>0</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="12">
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10">
         <v>0</v>
       </c>
       <c r="K64" s="10">
         <v>0</v>
       </c>
       <c r="L64" s="10"/>
-      <c r="M64" s="11">
-        <v>0</v>
-      </c>
-      <c r="N64" s="11">
-        <v>0</v>
-      </c>
-      <c r="O64" s="11">
-        <v>0</v>
-      </c>
-      <c r="P64" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="13"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="13"/>
-      <c r="AF64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="13"/>
-      <c r="AI64" s="13"/>
+      <c r="M64" s="10">
+        <v>0</v>
+      </c>
+      <c r="N64" s="10">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10">
+        <v>0</v>
+      </c>
+      <c r="P64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -7694,57 +7679,57 @@
       <c r="D65" s="10">
         <v>0</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10">
         <v>0</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
       </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="12">
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10">
         <v>0</v>
       </c>
       <c r="K65" s="10">
         <v>0</v>
       </c>
       <c r="L65" s="10"/>
-      <c r="M65" s="11">
-        <v>0</v>
-      </c>
-      <c r="N65" s="11">
-        <v>0</v>
-      </c>
-      <c r="O65" s="11">
-        <v>0</v>
-      </c>
-      <c r="P65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
-      <c r="AA65" s="13"/>
-      <c r="AB65" s="13"/>
-      <c r="AC65" s="13"/>
-      <c r="AD65" s="13"/>
-      <c r="AE65" s="13"/>
-      <c r="AF65" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="13"/>
-      <c r="AI65" s="13"/>
+      <c r="M65" s="10">
+        <v>0</v>
+      </c>
+      <c r="N65" s="10">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10">
+        <v>0</v>
+      </c>
+      <c r="P65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="10"/>
+      <c r="AI65" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
